--- a/medicine/Mort/Tueur_à_la_chaîne/Tueur_à_la_chaîne.xlsx
+++ b/medicine/Mort/Tueur_à_la_chaîne/Tueur_à_la_chaîne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tueur_%C3%A0_la_cha%C3%AEne</t>
+          <t>Tueur_à_la_chaîne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tueur à la chaîne (traduction de l'anglais spree killer) est un assassin qui commet plusieurs meurtres dans un laps de temps très court, généralement quelques heures, voire quelques minutes, sans se soucier de l'identité des victimes, tuant toute personne qu'il rencontre sur son chemin, y compris des membres de sa famille.
 La plupart des tueurs à la chaîne agissent par instabilité mentale ou sous influence, ou sont clairement animés d'intentions suicidaires. Leur identité est rapidement connue, ce qui les pousse à terminer leur massacre soit en se suicidant, soit en se préparant à être abattus lors de la confrontation avec la police, ce qu'on qualifie de suicide par police interposée.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tueur_%C3%A0_la_cha%C3%AEne</t>
+          <t>Tueur_à_la_chaîne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,22 +526,24 @@
           <t>Tueurs à la chaîne dans le monde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kumatarō Kido et Yagorō Tani, Japon : tuent 11 personnes en mai 1893 dans le village d'Akasaka (rattaché au district de Minamikawachi de la préfecture d'Osaka), avant de se suicider.
 Mutsuo Toi (1917-1938), Japon : auteur du « massacre de Tsuyama » ; le 21 mai 1938, il tue trente personnes en une heure et demie avec une arme à feu et un sabre, puis se suicide.
 Woo Bum-Kon (1955-1982), Corée : auteur du « massacre d'Uireyeong » ; le 26 avril 1982, en huit heures, il tue cinquante-sept personnes dans son village à Gyeongsangnam-do avec des grenades et une Carabine M1, puis se suicide le 27 avril.
 Denis Lortie (1959-), Canada : il planifie l'attentat du 8 mai 1984 contre le Premier ministre du Québec René Lévesque et les députés du Parti québécois à l'Assemblée Nationale du Québec. Du fait de son manque d'organisation et d'un très grand coup de chance impliquant sa visite dans une station de radio[pas clair], il ne réussit à abattre aucun député, mais tue trois personnes et en blesse treize autres, sans lien avec les cibles visées.
-James Huberty, États-Unis : il tue 21 personnes et en blesse 19 dans un restaurant McDonald's à San Diego, le 18 juillet 1984. Le massacre du McDonald's de San Ysidro était considéré comme la tuerie la plus meurtrière aux États-Unis avant que la fusillade du Luby's survienne en 1991[1],[2].
-Patrick Sherrill (en) (1941-1986), États-Unis : lors de la fusillade au bureau de poste d'Edmond (en) dans l'Oklahoma, le 20 août 1986, il tue quatorze personnes dont six de ses collègues de la poste avec deux pistolets. Il inspire l'expression « going postal » (quelqu'un qui devient subitement violent et incontrôlable)[3].
+James Huberty, États-Unis : il tue 21 personnes et en blesse 19 dans un restaurant McDonald's à San Diego, le 18 juillet 1984. Le massacre du McDonald's de San Ysidro était considéré comme la tuerie la plus meurtrière aux États-Unis avant que la fusillade du Luby's survienne en 1991,.
+Patrick Sherrill (en) (1941-1986), États-Unis : lors de la fusillade au bureau de poste d'Edmond (en) dans l'Oklahoma, le 20 août 1986, il tue quatorze personnes dont six de ses collègues de la poste avec deux pistolets. Il inspire l'expression « going postal » (quelqu'un qui devient subitement violent et incontrôlable).
 Michael Robert Ryan (1960-1987), Angleterre : auteur du massacre de Hungerford ; le 19 août 1987, il tue seize personnes à Hungerford dans le Berkshire et se suicide. Certains tabloïds accusent alors le film Rambo d'avoir inspiré son acte.
 James Edward Pough (en) (1948-1990), États-Unis : les 17 et 18 juin 1990, il tue onze personnes à Jacksonville en Floride.
 David Malcolm Gray (1956-1990), Nouvelle-Zélande : auteur du massacre d'Aramoana ; les 13 et 14 novembre 1990, il tue treize personnes avec un fusil à Aramoana. Il est abattu par la police.
 Wade Frankum (1958-1991), Australie : auteur du massacre de Strathfield (en) ; le 17 août 1991, il tue sept personnes et en blesse six, à Strathfield (en). Il se suicide d'une balle dans la tête.
-Tian Ming Jian, Chine : le 20 septembre 1994, il tue vingt-huit personnes avant d'être abattu par la police[4].
-Martin Bryant (1967-), Australie : auteur du massacre de Port Arthur ; le 28 avril 1996, il tue trente-cinq personnes à Port Arthur (Tasmanie) avec deux semi-automatiques ; il est arrêté par la police[5].
-Bulelani Vukwana (en) (1973-2002), Afrique du Sud : le 9 février 2002, après une dispute avec sa compagne, il tue onze personnes à Mdantsane (en)[6].
-Xinghua Qiu, Chine : du 14 au 31 juillet 2006, il tue onze personnes à Ankang et à Suizhou. Il a été condamné à mort[7].
+Tian Ming Jian, Chine : le 20 septembre 1994, il tue vingt-huit personnes avant d'être abattu par la police.
+Martin Bryant (1967-), Australie : auteur du massacre de Port Arthur ; le 28 avril 1996, il tue trente-cinq personnes à Port Arthur (Tasmanie) avec deux semi-automatiques ; il est arrêté par la police.
+Bulelani Vukwana (en) (1973-2002), Afrique du Sud : le 9 février 2002, après une dispute avec sa compagne, il tue onze personnes à Mdantsane (en).
+Xinghua Qiu, Chine : du 14 au 31 juillet 2006, il tue onze personnes à Ankang et à Suizhou. Il a été condamné à mort.
 Masahiro Kanagawa (1983-2013), Japon : auteur du massacre de Tsuchiura, le 19 mars 2008.
 Tomohiro Katō (1983-), Japon : auteur du massacre d'Akihabara ; le 8 juin 2008, il tue sept personnes et tente de se suicider en projetant sa voiture contre un mur.
 Derrick Bird (?-2010), Angleterre : auteur du massacre de Cumbria (en) ; chauffeur de taxi, le 2 juin 2010, il abat douze personnes, en blesse onze autres et se suicide.[réf. nécessaire]
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tueur_%C3%A0_la_cha%C3%AEne</t>
+          <t>Tueur_à_la_chaîne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,11 +576,13 @@
           <t>Tueurs à la chaîne en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Guy Martel (en) (1944-) : professeur, il tue sept personnes et en blesse cinq autres le 19 juin 1985 en Ille-et-Vilaine et dans les Côtes-d'Armor.
 Christian Dornier (1958-) : fermier, il tue quatorze personnes le 12 juillet 1989 à Luxiol. Reconnu irresponsable, il n'a pas été jugé et est interné dans un hôpital psychiatrique à Sarreguemines depuis 1991.
-Éric Borel (1978-1995) : élève en lycée technique alors âgé de seize ans, il tue quatorze personnes le 24 septembre 1995, dont son beau-père, sa mère et son frère, à Cuers et à Solliès-Pont, puis se suicide. Il avait sur lui une batte de baseball, une carabine .22 Long Rifle, un marteau et un pistolet. Il vouait une admiration au national-socialisme[8].
+Éric Borel (1978-1995) : élève en lycée technique alors âgé de seize ans, il tue quatorze personnes le 24 septembre 1995, dont son beau-père, sa mère et son frère, à Cuers et à Solliès-Pont, puis se suicide. Il avait sur lui une batte de baseball, une carabine .22 Long Rifle, un marteau et un pistolet. Il vouait une admiration au national-socialisme.
 Habib Mezzaoui: Le 11 aout 2001, lors d'un braquage de la Caisse D'Epargne de Cergy , il tue le directeur de l'agence et le conseiller financier, dans sa fuite il tue un troisième homme pour lui voler sa voiture. Il est condamné à 30 ans de réclusion criminelle.
 Jean-Pierre Roux-Durrafourt : le 29 octobre 2001, lors de la tuerie de Tours, il tue quatre personnes et en blesse onze autres à Tours. Il a été condamné à la réclusion à perpétuité.
 Richard Durn : Le 26 mars 2002, il s'introduit avec des armes dans l’hôtel de ville de Nanterre. Il tue huit personnes du conseil municipal et en blesse grièvement 14 autres. Le 28 mars 2002, il se suicide en se défenestrant du 4e étage du Quai des Orfèvres, à Paris, alors qu'il était interrogé par deux policiers.
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tueur_%C3%A0_la_cha%C3%AEne</t>
+          <t>Tueur_à_la_chaîne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +615,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Natural Born Killers (1994) d'Oliver Stone ;
 Bowling for Columbine (2002) de Michael Moore (documentaire sur la tuerie de Columbine) ;
